--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1077.554023807971</v>
+        <v>1162.752546394575</v>
       </c>
       <c r="AB2" t="n">
-        <v>1474.35695370251</v>
+        <v>1590.929330999043</v>
       </c>
       <c r="AC2" t="n">
-        <v>1333.646395314123</v>
+        <v>1439.093268531833</v>
       </c>
       <c r="AD2" t="n">
-        <v>1077554.023807971</v>
+        <v>1162752.546394575</v>
       </c>
       <c r="AE2" t="n">
-        <v>1474356.95370251</v>
+        <v>1590929.330999043</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.276500411426396e-06</v>
+        <v>2.361859967365539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.904296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1333646.395314123</v>
+        <v>1439093.268531833</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>515.2604376323665</v>
+        <v>564.0428400870791</v>
       </c>
       <c r="AB3" t="n">
-        <v>705.002062454791</v>
+        <v>771.7482976210357</v>
       </c>
       <c r="AC3" t="n">
-        <v>637.7176550907142</v>
+        <v>698.0937232516219</v>
       </c>
       <c r="AD3" t="n">
-        <v>515260.4376323665</v>
+        <v>564042.8400870791</v>
       </c>
       <c r="AE3" t="n">
-        <v>705002.062454791</v>
+        <v>771748.2976210357</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.003728447163684e-06</v>
+        <v>3.707422232272662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.584635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>637717.6550907142</v>
+        <v>698093.7232516219</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.7287047415216</v>
+        <v>458.4257663416627</v>
       </c>
       <c r="AB4" t="n">
-        <v>560.6088897820672</v>
+        <v>627.2383578261141</v>
       </c>
       <c r="AC4" t="n">
-        <v>507.1051641607845</v>
+        <v>567.3756092897534</v>
       </c>
       <c r="AD4" t="n">
-        <v>409728.7047415216</v>
+        <v>458425.7663416627</v>
       </c>
       <c r="AE4" t="n">
-        <v>560608.8897820672</v>
+        <v>627238.3578261142</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.279158246293867e-06</v>
+        <v>4.217039472159171e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.668294270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>507105.1641607845</v>
+        <v>567375.6092897534</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>360.3521164067867</v>
+        <v>396.8536669018007</v>
       </c>
       <c r="AB5" t="n">
-        <v>493.0496632811452</v>
+        <v>542.9926950031794</v>
       </c>
       <c r="AC5" t="n">
-        <v>445.9936954171405</v>
+        <v>491.170234287109</v>
       </c>
       <c r="AD5" t="n">
-        <v>360352.1164067867</v>
+        <v>396853.6669018007</v>
       </c>
       <c r="AE5" t="n">
-        <v>493049.6632811452</v>
+        <v>542992.6950031794</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.436853477050097e-06</v>
+        <v>4.508816935945039e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.2353515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>445993.6954171406</v>
+        <v>491170.234287109</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>337.2499523474573</v>
+        <v>373.7515028424713</v>
       </c>
       <c r="AB6" t="n">
-        <v>461.4402632196237</v>
+        <v>511.3832949416578</v>
       </c>
       <c r="AC6" t="n">
-        <v>417.401052133419</v>
+        <v>462.5775910033875</v>
       </c>
       <c r="AD6" t="n">
-        <v>337249.9523474573</v>
+        <v>373751.5028424713</v>
       </c>
       <c r="AE6" t="n">
-        <v>461440.2632196237</v>
+        <v>511383.2949416578</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.505477511748634e-06</v>
+        <v>4.635789366899814e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.064453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>417401.052133419</v>
+        <v>462577.5910033875</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>338.5224803894794</v>
+        <v>375.0240308844934</v>
       </c>
       <c r="AB7" t="n">
-        <v>463.1813922266934</v>
+        <v>513.1244239487276</v>
       </c>
       <c r="AC7" t="n">
-        <v>418.976010231744</v>
+        <v>464.1525491017124</v>
       </c>
       <c r="AD7" t="n">
-        <v>338522.4803894794</v>
+        <v>375024.0308844934</v>
       </c>
       <c r="AE7" t="n">
-        <v>463181.3922266935</v>
+        <v>513124.4239487275</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.505477511748634e-06</v>
+        <v>4.635789366899814e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.064453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>418976.010231744</v>
+        <v>464152.5491017124</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>755.2630194841978</v>
+        <v>813.9963288017634</v>
       </c>
       <c r="AB2" t="n">
-        <v>1033.384183111102</v>
+        <v>1113.74568805013</v>
       </c>
       <c r="AC2" t="n">
-        <v>934.7594470387884</v>
+        <v>1007.451362734516</v>
       </c>
       <c r="AD2" t="n">
-        <v>755263.0194841978</v>
+        <v>813996.3288017634</v>
       </c>
       <c r="AE2" t="n">
-        <v>1033384.183111102</v>
+        <v>1113745.68805013</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.570582596202629e-06</v>
+        <v>2.993772820141524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.009765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>934759.4470387883</v>
+        <v>1007451.362734516</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>401.7168863681052</v>
+        <v>448.6863940444025</v>
       </c>
       <c r="AB3" t="n">
-        <v>549.646766427078</v>
+        <v>613.9125189782217</v>
       </c>
       <c r="AC3" t="n">
-        <v>497.1892504733586</v>
+        <v>555.3215697985714</v>
       </c>
       <c r="AD3" t="n">
-        <v>401716.8863681052</v>
+        <v>448686.3940444025</v>
       </c>
       <c r="AE3" t="n">
-        <v>549646.7664270779</v>
+        <v>613912.5189782217</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.251319705730711e-06</v>
+        <v>4.291362810692995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>497189.2504733586</v>
+        <v>555321.5697985714</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>328.5143599004052</v>
+        <v>363.7202449525363</v>
       </c>
       <c r="AB4" t="n">
-        <v>449.4878402464273</v>
+        <v>497.6580853487841</v>
       </c>
       <c r="AC4" t="n">
-        <v>406.5893516334536</v>
+        <v>450.162296150605</v>
       </c>
       <c r="AD4" t="n">
-        <v>328514.3599004052</v>
+        <v>363720.2449525363</v>
       </c>
       <c r="AE4" t="n">
-        <v>449487.8402464273</v>
+        <v>497658.0853487841</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.512584444844425e-06</v>
+        <v>4.789373725057598e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.256510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>406589.3516334536</v>
+        <v>450162.296150605</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.3666492869439</v>
+        <v>348.572534339075</v>
       </c>
       <c r="AB5" t="n">
-        <v>428.7620743152615</v>
+        <v>476.9323194176183</v>
       </c>
       <c r="AC5" t="n">
-        <v>387.841623713963</v>
+        <v>431.4145682311145</v>
       </c>
       <c r="AD5" t="n">
-        <v>313366.649286944</v>
+        <v>348572.534339075</v>
       </c>
       <c r="AE5" t="n">
-        <v>428762.0743152616</v>
+        <v>476932.3194176183</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.565320321944642e-06</v>
+        <v>4.889896445665018e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.1279296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>387841.623713963</v>
+        <v>431414.5682311145</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.573939569036</v>
+        <v>317.3423686792279</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.0524215825392</v>
+        <v>434.2018289841453</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.0670676630982</v>
+        <v>392.762215831992</v>
       </c>
       <c r="AD2" t="n">
-        <v>275573.939569036</v>
+        <v>317342.3686792279</v>
       </c>
       <c r="AE2" t="n">
-        <v>377052.4215825392</v>
+        <v>434201.8289841452</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.562260545736205e-06</v>
+        <v>5.456944411314935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.845703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>341067.0676630982</v>
+        <v>392762.215831992</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.9265663834382</v>
+        <v>304.6949954936302</v>
       </c>
       <c r="AB3" t="n">
-        <v>359.7477276272784</v>
+        <v>416.8971350288845</v>
       </c>
       <c r="AC3" t="n">
-        <v>325.4139094116371</v>
+        <v>377.1090575805309</v>
       </c>
       <c r="AD3" t="n">
-        <v>262926.5663834382</v>
+        <v>304694.9954936302</v>
       </c>
       <c r="AE3" t="n">
-        <v>359747.7276272784</v>
+        <v>416897.1350288845</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.637919118256891e-06</v>
+        <v>5.618077370713566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.650390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>325413.9094116371</v>
+        <v>377109.0575805309</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.7262244956794</v>
+        <v>452.6134086804808</v>
       </c>
       <c r="AB2" t="n">
-        <v>559.2372520833987</v>
+        <v>619.2856336509625</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.8644336389714</v>
+        <v>560.1818819481597</v>
       </c>
       <c r="AD2" t="n">
-        <v>408726.2244956794</v>
+        <v>452613.4086804808</v>
       </c>
       <c r="AE2" t="n">
-        <v>559237.2520833988</v>
+        <v>619285.6336509625</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.149855587482978e-06</v>
+        <v>4.364950115736314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.805989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>505864.4336389714</v>
+        <v>560181.8819481597</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.1779467931225</v>
+        <v>311.0080835857029</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.6153391472251</v>
+        <v>425.5349806702486</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.2899453759968</v>
+        <v>384.9225193571758</v>
       </c>
       <c r="AD3" t="n">
-        <v>278177.9467931225</v>
+        <v>311008.0835857029</v>
       </c>
       <c r="AE3" t="n">
-        <v>380615.3391472251</v>
+        <v>425534.9806702486</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.639607351932844e-06</v>
+        <v>5.359315520261156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.357421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>344289.9453759968</v>
+        <v>384922.5193571757</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.6737681599762</v>
+        <v>312.5039049525566</v>
       </c>
       <c r="AB4" t="n">
-        <v>382.6619879323356</v>
+        <v>427.5816294553591</v>
       </c>
       <c r="AC4" t="n">
-        <v>346.141264873546</v>
+        <v>386.7738388547249</v>
       </c>
       <c r="AD4" t="n">
-        <v>279673.7681599762</v>
+        <v>312503.9049525567</v>
       </c>
       <c r="AE4" t="n">
-        <v>382661.9879323356</v>
+        <v>427581.6294553591</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.639504246298223e-06</v>
+        <v>5.359106180175993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.357421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>346141.264873546</v>
+        <v>386773.8388547249</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.3971944089957</v>
+        <v>293.5367488085272</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.3916616544893</v>
+        <v>401.6299296472255</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.996387279058</v>
+        <v>363.29893285284</v>
       </c>
       <c r="AD2" t="n">
-        <v>263397.1944089957</v>
+        <v>293536.7488085272</v>
       </c>
       <c r="AE2" t="n">
-        <v>360391.6616544893</v>
+        <v>401629.9296472255</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.57706060326047e-06</v>
+        <v>5.738610601569873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.068684895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>325996.387279058</v>
+        <v>363298.9328528401</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>820.490797950035</v>
+        <v>879.7916982419738</v>
       </c>
       <c r="AB2" t="n">
-        <v>1122.631707254553</v>
+        <v>1203.769815205064</v>
       </c>
       <c r="AC2" t="n">
-        <v>1015.489312737675</v>
+        <v>1088.883713543438</v>
       </c>
       <c r="AD2" t="n">
-        <v>820490.797950035</v>
+        <v>879791.6982419738</v>
       </c>
       <c r="AE2" t="n">
-        <v>1122631.707254553</v>
+        <v>1203769.815205064</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.49425731483434e-06</v>
+        <v>2.825287442462673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.42643229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1015489.312737675</v>
+        <v>1088883.713543439</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.758857993637</v>
+        <v>473.3906384849636</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.9609820646979</v>
+        <v>647.7139560961425</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.7969865834605</v>
+        <v>585.8970451985728</v>
       </c>
       <c r="AD3" t="n">
-        <v>437758.857993637</v>
+        <v>473390.6384849636</v>
       </c>
       <c r="AE3" t="n">
-        <v>598960.9820646979</v>
+        <v>647713.9560961425</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.187544466928705e-06</v>
+        <v>4.136129601565688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.122395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>541796.9865834605</v>
+        <v>585897.0451985728</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.5068759204307</v>
+        <v>384.0533155571857</v>
       </c>
       <c r="AB4" t="n">
-        <v>476.8424826725843</v>
+        <v>525.4786895818313</v>
       </c>
       <c r="AC4" t="n">
-        <v>431.3333053789398</v>
+        <v>475.3277409621134</v>
       </c>
       <c r="AD4" t="n">
-        <v>348506.8759204308</v>
+        <v>384053.3155571857</v>
       </c>
       <c r="AE4" t="n">
-        <v>476842.4826725843</v>
+        <v>525478.6895818313</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.451822504610955e-06</v>
+        <v>4.635816913630222e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>431333.3053789398</v>
+        <v>475327.7409621134</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>320.1691831664285</v>
+        <v>355.7156228031835</v>
       </c>
       <c r="AB5" t="n">
-        <v>438.0696012757867</v>
+        <v>486.7058081850337</v>
       </c>
       <c r="AC5" t="n">
-        <v>396.2608533645717</v>
+        <v>440.2552889477453</v>
       </c>
       <c r="AD5" t="n">
-        <v>320169.1831664285</v>
+        <v>355715.6228031835</v>
       </c>
       <c r="AE5" t="n">
-        <v>438069.6012757867</v>
+        <v>486705.8081850337</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.544860625808763e-06</v>
+        <v>4.811730012987963e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.121419270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>396260.8533645718</v>
+        <v>440255.2889477453</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>320.2929741021954</v>
+        <v>355.8394137389503</v>
       </c>
       <c r="AB6" t="n">
-        <v>438.2389774953737</v>
+        <v>486.8751844046206</v>
       </c>
       <c r="AC6" t="n">
-        <v>396.4140645554823</v>
+        <v>440.4085001386559</v>
       </c>
       <c r="AD6" t="n">
-        <v>320292.9741021955</v>
+        <v>355839.4137389503</v>
       </c>
       <c r="AE6" t="n">
-        <v>438238.9774953737</v>
+        <v>486875.1844046206</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.550795156173232e-06</v>
+        <v>4.822950807391441e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.106770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>396414.0645554823</v>
+        <v>440408.5001386559</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.972816621229</v>
+        <v>299.0005803598318</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.706276892381</v>
+        <v>409.1057850229561</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.7581690626665</v>
+        <v>370.0613030839399</v>
       </c>
       <c r="AD2" t="n">
-        <v>259972.816621229</v>
+        <v>299000.5803598318</v>
       </c>
       <c r="AE2" t="n">
-        <v>355706.276892381</v>
+        <v>409105.7850229561</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.511768600797002e-06</v>
+        <v>5.758397173320678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>321758.1690626665</v>
+        <v>370061.3030839399</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>558.3084857386851</v>
+        <v>615.1995982173984</v>
       </c>
       <c r="AB2" t="n">
-        <v>763.9023010197037</v>
+        <v>841.7432309718249</v>
       </c>
       <c r="AC2" t="n">
-        <v>690.9965375539956</v>
+        <v>761.4084384019178</v>
       </c>
       <c r="AD2" t="n">
-        <v>558308.4857386851</v>
+        <v>615199.5982173984</v>
       </c>
       <c r="AE2" t="n">
-        <v>763902.3010197037</v>
+        <v>841743.230971825</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.836220526779261e-06</v>
+        <v>3.59896685604053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.821614583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>690996.5375539956</v>
+        <v>761408.4384019178</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>329.7022582087125</v>
+        <v>363.973471063255</v>
       </c>
       <c r="AB3" t="n">
-        <v>451.1131751182281</v>
+        <v>498.0045604850171</v>
       </c>
       <c r="AC3" t="n">
-        <v>408.0595668262615</v>
+        <v>450.4757041861168</v>
       </c>
       <c r="AD3" t="n">
-        <v>329702.2582087124</v>
+        <v>363973.471063255</v>
       </c>
       <c r="AE3" t="n">
-        <v>451113.1751182281</v>
+        <v>498004.5604850171</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.47012063276148e-06</v>
+        <v>4.841402303307937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5576171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>408059.5668262615</v>
+        <v>450475.7041861168</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.8401026915898</v>
+        <v>329.9407233455402</v>
       </c>
       <c r="AB4" t="n">
-        <v>404.7814800468332</v>
+        <v>451.4394536387751</v>
       </c>
       <c r="AC4" t="n">
-        <v>366.1497037055379</v>
+        <v>408.3547057827423</v>
       </c>
       <c r="AD4" t="n">
-        <v>295840.1026915898</v>
+        <v>329940.7233455402</v>
       </c>
       <c r="AE4" t="n">
-        <v>404781.4800468332</v>
+        <v>451439.4536387752</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.606851990001601e-06</v>
+        <v>5.109393873880215e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.212565104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>366149.7037055379</v>
+        <v>408354.7057827422</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>679.6605256831846</v>
+        <v>737.8899120132075</v>
       </c>
       <c r="AB2" t="n">
-        <v>929.9415157459269</v>
+        <v>1009.613531021885</v>
       </c>
       <c r="AC2" t="n">
-        <v>841.1892026642496</v>
+        <v>913.2574326226463</v>
       </c>
       <c r="AD2" t="n">
-        <v>679660.5256831846</v>
+        <v>737889.9120132076</v>
       </c>
       <c r="AE2" t="n">
-        <v>929941.515745927</v>
+        <v>1009613.531021885</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.656092994295593e-06</v>
+        <v>3.184175102948561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>841189.2026642496</v>
+        <v>913257.4326226463</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.4819081157285</v>
+        <v>423.9800763251752</v>
       </c>
       <c r="AB3" t="n">
-        <v>516.487400010394</v>
+        <v>580.108245108963</v>
       </c>
       <c r="AC3" t="n">
-        <v>467.1945674480199</v>
+        <v>524.7435283827984</v>
       </c>
       <c r="AD3" t="n">
-        <v>377481.9081157285</v>
+        <v>423980.0763251752</v>
       </c>
       <c r="AE3" t="n">
-        <v>516487.400010394</v>
+        <v>580108.245108963</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.322137812902199e-06</v>
+        <v>4.46478152792599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.834309895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>467194.5674480199</v>
+        <v>524743.5283827984</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>309.995217937487</v>
+        <v>344.8475983894802</v>
       </c>
       <c r="AB4" t="n">
-        <v>424.1491332058808</v>
+        <v>471.8356977188066</v>
       </c>
       <c r="AC4" t="n">
-        <v>383.668935229758</v>
+        <v>426.8043609540838</v>
       </c>
       <c r="AD4" t="n">
-        <v>309995.2179374871</v>
+        <v>344847.5983894802</v>
       </c>
       <c r="AE4" t="n">
-        <v>424149.1332058808</v>
+        <v>471835.6977188066</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.569503601923567e-06</v>
+        <v>4.940392492670205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.1767578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>383668.935229758</v>
+        <v>426804.3609540838</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>308.8619575599578</v>
+        <v>343.7143380119509</v>
       </c>
       <c r="AB5" t="n">
-        <v>422.598556361426</v>
+        <v>470.2851208743517</v>
       </c>
       <c r="AC5" t="n">
-        <v>382.2663432630897</v>
+        <v>425.4017689874155</v>
       </c>
       <c r="AD5" t="n">
-        <v>308861.9575599578</v>
+        <v>343714.3380119509</v>
       </c>
       <c r="AE5" t="n">
-        <v>422598.556361426</v>
+        <v>470285.1208743517</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.573891248949961e-06</v>
+        <v>4.948828635127238e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>382266.3432630897</v>
+        <v>425401.7689874155</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>988.3108358114503</v>
+        <v>1060.697376247075</v>
       </c>
       <c r="AB2" t="n">
-        <v>1352.250486754085</v>
+        <v>1451.292944846887</v>
       </c>
       <c r="AC2" t="n">
-        <v>1223.193598193752</v>
+        <v>1312.783583093141</v>
       </c>
       <c r="AD2" t="n">
-        <v>988310.8358114503</v>
+        <v>1060697.376247075</v>
       </c>
       <c r="AE2" t="n">
-        <v>1352250.486754085</v>
+        <v>1451292.944846887</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.345619167050202e-06</v>
+        <v>2.506786447812322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38346354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1223193.598193752</v>
+        <v>1312783.583093141</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>487.3721975780367</v>
+        <v>535.5730271349227</v>
       </c>
       <c r="AB3" t="n">
-        <v>666.8441420701391</v>
+        <v>732.7946435403919</v>
       </c>
       <c r="AC3" t="n">
-        <v>603.2014730725959</v>
+        <v>662.8577512446379</v>
       </c>
       <c r="AD3" t="n">
-        <v>487372.1975780367</v>
+        <v>535573.0271349227</v>
       </c>
       <c r="AE3" t="n">
-        <v>666844.1420701392</v>
+        <v>732794.6435403919</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.066049627518051e-06</v>
+        <v>3.848893753589587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.413736979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>603201.4730725959</v>
+        <v>662857.7512446379</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>388.3951591751928</v>
+        <v>424.759066347873</v>
       </c>
       <c r="AB4" t="n">
-        <v>531.4193915686102</v>
+        <v>581.1740936246325</v>
       </c>
       <c r="AC4" t="n">
-        <v>480.7014706891017</v>
+        <v>525.7076538120604</v>
       </c>
       <c r="AD4" t="n">
-        <v>388395.1591751928</v>
+        <v>424759.0663478731</v>
       </c>
       <c r="AE4" t="n">
-        <v>531419.3915686102</v>
+        <v>581174.0936246326</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.337940365635832e-06</v>
+        <v>4.355405576762744e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.551106770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>480701.4706891017</v>
+        <v>525707.6538120604</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>341.966242813492</v>
+        <v>378.15955778558</v>
       </c>
       <c r="AB5" t="n">
-        <v>467.8932999033028</v>
+        <v>517.4145901844784</v>
       </c>
       <c r="AC5" t="n">
-        <v>423.2382200529017</v>
+        <v>468.0332678932093</v>
       </c>
       <c r="AD5" t="n">
-        <v>341966.242813492</v>
+        <v>378159.55778558</v>
       </c>
       <c r="AE5" t="n">
-        <v>467893.2999033028</v>
+        <v>517414.5901844783</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.486073291145485e-06</v>
+        <v>4.631365981634516e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.162109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>423238.2200529017</v>
+        <v>468033.2678932092</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.1726380328788</v>
+        <v>368.3659530049669</v>
       </c>
       <c r="AB6" t="n">
-        <v>454.4932577791186</v>
+        <v>504.014548060294</v>
       </c>
       <c r="AC6" t="n">
-        <v>411.1170591419723</v>
+        <v>455.9121069822798</v>
       </c>
       <c r="AD6" t="n">
-        <v>332172.6380328788</v>
+        <v>368365.9530049668</v>
       </c>
       <c r="AE6" t="n">
-        <v>454493.2577791186</v>
+        <v>504014.548060294</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.517036272398773e-06</v>
+        <v>4.689047667277981e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.085611979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>411117.0591419723</v>
+        <v>455912.1069822798</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>463.0399499585721</v>
+        <v>507.4366325689876</v>
       </c>
       <c r="AB2" t="n">
-        <v>633.551687414184</v>
+        <v>694.2971872051572</v>
       </c>
       <c r="AC2" t="n">
-        <v>573.0864035627515</v>
+        <v>628.0344381105186</v>
       </c>
       <c r="AD2" t="n">
-        <v>463039.9499585721</v>
+        <v>507436.6325689877</v>
       </c>
       <c r="AE2" t="n">
-        <v>633551.687414184</v>
+        <v>694297.1872051572</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.03834082724384e-06</v>
+        <v>4.085848796726142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.1298828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>573086.4035627515</v>
+        <v>628034.4381105186</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.9729939214236</v>
+        <v>319.2491930427302</v>
       </c>
       <c r="AB3" t="n">
-        <v>391.2808665213752</v>
+        <v>436.8108302014428</v>
       </c>
       <c r="AC3" t="n">
-        <v>353.9375697867197</v>
+        <v>395.122217634867</v>
       </c>
       <c r="AD3" t="n">
-        <v>285972.9939214236</v>
+        <v>319249.1930427302</v>
       </c>
       <c r="AE3" t="n">
-        <v>391280.8665213753</v>
+        <v>436810.8302014428</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.620418475063672e-06</v>
+        <v>5.252621902164872e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.3232421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>353937.5697867197</v>
+        <v>395122.217634867</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>285.5073805575741</v>
+        <v>318.7835796788807</v>
       </c>
       <c r="AB4" t="n">
-        <v>390.6437937755445</v>
+        <v>436.1737574556121</v>
       </c>
       <c r="AC4" t="n">
-        <v>353.3612983696138</v>
+        <v>394.5459462177611</v>
       </c>
       <c r="AD4" t="n">
-        <v>285507.3805575741</v>
+        <v>318783.5796788807</v>
       </c>
       <c r="AE4" t="n">
-        <v>390643.7937755444</v>
+        <v>436173.7574556121</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.626425573405699e-06</v>
+        <v>5.264663114902476e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.310221354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>353361.2983696138</v>
+        <v>394545.9462177611</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.5921746767444</v>
+        <v>357.5280112059116</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.4895775057012</v>
+        <v>489.1855979545796</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.9726774771052</v>
+        <v>442.4984110620925</v>
       </c>
       <c r="AD2" t="n">
-        <v>325592.1746767444</v>
+        <v>357528.0112059116</v>
       </c>
       <c r="AE2" t="n">
-        <v>445489.5775057012</v>
+        <v>489185.5979545796</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.412176674031972e-06</v>
+        <v>5.046424454579363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.156575520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>402972.6774771052</v>
+        <v>442498.4110620925</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.4351258142093</v>
+        <v>300.4562136893971</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.2847816609498</v>
+        <v>411.0974467624775</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.2316375866567</v>
+        <v>371.8628834223562</v>
       </c>
       <c r="AD3" t="n">
-        <v>268435.1258142093</v>
+        <v>300456.2136893971</v>
       </c>
       <c r="AE3" t="n">
-        <v>367284.7816609498</v>
+        <v>411097.4467624775</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.641685569679404e-06</v>
+        <v>5.526571417282043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.534830729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>332231.6375866567</v>
+        <v>371862.8834223562</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.6122503277692</v>
+        <v>298.5884502847768</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.4764459486677</v>
+        <v>408.5418904723702</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.8365886512311</v>
+        <v>369.5512258378309</v>
       </c>
       <c r="AD2" t="n">
-        <v>257612.2503277692</v>
+        <v>298588.4502847768</v>
       </c>
       <c r="AE2" t="n">
-        <v>352476.4459486677</v>
+        <v>408541.8904723702</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.613116208703346e-06</v>
+        <v>5.680537747596155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.834309895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>318836.5886512311</v>
+        <v>369551.2258378309</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.7994044628296</v>
+        <v>299.7756044198341</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.1007626099681</v>
+        <v>410.1662071334995</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.3058828100137</v>
+        <v>371.0205199965648</v>
       </c>
       <c r="AD3" t="n">
-        <v>258799.4044628296</v>
+        <v>299775.604419834</v>
       </c>
       <c r="AE3" t="n">
-        <v>354100.7626099681</v>
+        <v>410166.2071334996</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.61695612252082e-06</v>
+        <v>5.688885166404025e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>320305.8828100137</v>
+        <v>371020.5199965648</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.3435096667762</v>
+        <v>307.307767684918</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.5276725230992</v>
+        <v>420.4720452083785</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.3559086893308</v>
+        <v>380.3427833499119</v>
       </c>
       <c r="AD2" t="n">
-        <v>269343.5096667762</v>
+        <v>307307.767684918</v>
       </c>
       <c r="AE2" t="n">
-        <v>368527.6725230992</v>
+        <v>420472.0452083785</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.377811655867465e-06</v>
+        <v>5.655689137660198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.059895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>333355.9086893307</v>
+        <v>380342.7833499119</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>623.8100438190852</v>
+        <v>669.9031585322507</v>
       </c>
       <c r="AB2" t="n">
-        <v>853.5244225101031</v>
+        <v>916.591055545361</v>
       </c>
       <c r="AC2" t="n">
-        <v>772.065249554789</v>
+        <v>829.112891647737</v>
       </c>
       <c r="AD2" t="n">
-        <v>623810.0438190852</v>
+        <v>669903.1585322507</v>
       </c>
       <c r="AE2" t="n">
-        <v>853524.4225101031</v>
+        <v>916591.055545361</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.741559207268654e-06</v>
+        <v>3.379631822906781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.2041015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>772065.249554789</v>
+        <v>829112.891647737</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>353.2655666077108</v>
+        <v>399.2732509577535</v>
       </c>
       <c r="AB3" t="n">
-        <v>483.3535332095371</v>
+        <v>546.3032766530488</v>
       </c>
       <c r="AC3" t="n">
-        <v>437.2229503909627</v>
+        <v>494.1648586707454</v>
       </c>
       <c r="AD3" t="n">
-        <v>353265.5666077108</v>
+        <v>399273.2509577535</v>
       </c>
       <c r="AE3" t="n">
-        <v>483353.5332095371</v>
+        <v>546303.2766530488</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.3955425092461e-06</v>
+        <v>4.648737558610708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.691080729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>437222.9503909627</v>
+        <v>494164.8586707455</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>302.0255444926888</v>
+        <v>336.510062050129</v>
       </c>
       <c r="AB4" t="n">
-        <v>413.2446744015301</v>
+        <v>460.4279126731629</v>
       </c>
       <c r="AC4" t="n">
-        <v>373.8051826691905</v>
+        <v>416.4853189022695</v>
       </c>
       <c r="AD4" t="n">
-        <v>302025.5444926888</v>
+        <v>336510.0620501289</v>
       </c>
       <c r="AE4" t="n">
-        <v>413244.6744015301</v>
+        <v>460427.9126731629</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.590526237286357e-06</v>
+        <v>5.027118729623172e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.1865234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>373805.1826691905</v>
+        <v>416485.3189022695</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>302.2142495372935</v>
+        <v>336.6987670947338</v>
       </c>
       <c r="AB5" t="n">
-        <v>413.5028689686373</v>
+        <v>460.68610724027</v>
       </c>
       <c r="AC5" t="n">
-        <v>374.0387355091914</v>
+        <v>416.7188717422703</v>
       </c>
       <c r="AD5" t="n">
-        <v>302214.2495372936</v>
+        <v>336698.7670947338</v>
       </c>
       <c r="AE5" t="n">
-        <v>413502.8689686373</v>
+        <v>460686.10724027</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.596139405214789e-06</v>
+        <v>5.038011520909894e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.173502604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>374038.7355091914</v>
+        <v>416718.8717422703</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>894.7377971384964</v>
+        <v>966.5734405086716</v>
       </c>
       <c r="AB2" t="n">
-        <v>1224.219727090633</v>
+        <v>1322.508423514624</v>
       </c>
       <c r="AC2" t="n">
-        <v>1107.381914540281</v>
+        <v>1196.290075726618</v>
       </c>
       <c r="AD2" t="n">
-        <v>894737.7971384964</v>
+        <v>966573.4405086717</v>
       </c>
       <c r="AE2" t="n">
-        <v>1224219.727090633</v>
+        <v>1322508.423514624</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.418208983265113e-06</v>
+        <v>2.6611163156431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.89029947916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1107381.914540281</v>
+        <v>1196290.075726618</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>462.0354886972216</v>
+        <v>509.8122193131273</v>
       </c>
       <c r="AB3" t="n">
-        <v>632.177339202701</v>
+        <v>697.5475697919796</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.8432212156625</v>
+        <v>630.9746087451953</v>
       </c>
       <c r="AD3" t="n">
-        <v>462035.4886972216</v>
+        <v>509812.2193131273</v>
       </c>
       <c r="AE3" t="n">
-        <v>632177.339202701</v>
+        <v>697547.5697919796</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.125937494284933e-06</v>
+        <v>3.989092594135321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>571843.2212156625</v>
+        <v>630974.6087451953</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.8709559655401</v>
+        <v>404.7461967318929</v>
       </c>
       <c r="AB4" t="n">
-        <v>504.7055153901085</v>
+        <v>553.7916025105534</v>
       </c>
       <c r="AC4" t="n">
-        <v>456.5371293599155</v>
+        <v>500.9385092183411</v>
       </c>
       <c r="AD4" t="n">
-        <v>368870.9559655401</v>
+        <v>404746.1967318929</v>
       </c>
       <c r="AE4" t="n">
-        <v>504705.5153901085</v>
+        <v>553791.6025105534</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.390979828862347e-06</v>
+        <v>4.486415971157146e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4599609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>456537.1293599155</v>
+        <v>500938.5092183411</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>326.2685666337425</v>
+        <v>362.1438074000954</v>
       </c>
       <c r="AB5" t="n">
-        <v>446.4150468215732</v>
+        <v>495.5011339420182</v>
       </c>
       <c r="AC5" t="n">
-        <v>403.8098213003748</v>
+        <v>448.2112011588004</v>
       </c>
       <c r="AD5" t="n">
-        <v>326268.5666337425</v>
+        <v>362143.8074000954</v>
       </c>
       <c r="AE5" t="n">
-        <v>446415.0468215732</v>
+        <v>495501.1339420181</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.529242156638678e-06</v>
+        <v>4.745850328593881e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.106770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>403809.8213003748</v>
+        <v>448211.2011588004</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>326.3937029344316</v>
+        <v>362.2689437007844</v>
       </c>
       <c r="AB6" t="n">
-        <v>446.5862638287999</v>
+        <v>495.6723509492448</v>
       </c>
       <c r="AC6" t="n">
-        <v>403.9646975967364</v>
+        <v>448.3660774551619</v>
       </c>
       <c r="AD6" t="n">
-        <v>326393.7029344316</v>
+        <v>362268.9437007844</v>
       </c>
       <c r="AE6" t="n">
-        <v>446586.2638287999</v>
+        <v>495672.3509492448</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.532753279581523e-06</v>
+        <v>4.752438572399756e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.0986328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>403964.6975967364</v>
+        <v>448366.077455162</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.6144312040864</v>
+        <v>330.2448038196612</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.4220210759574</v>
+        <v>451.8555099585512</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.2561299417065</v>
+        <v>408.7310542712976</v>
       </c>
       <c r="AD2" t="n">
-        <v>284614.4312040864</v>
+        <v>330244.8038196611</v>
       </c>
       <c r="AE2" t="n">
-        <v>389422.0210759575</v>
+        <v>451855.5099585513</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.102277744196981e-06</v>
+        <v>5.25763709736321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.440104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>352256.1299417065</v>
+        <v>408731.0542712976</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>365.9741276847674</v>
+        <v>409.059323381547</v>
       </c>
       <c r="AB2" t="n">
-        <v>500.7419471373113</v>
+        <v>559.6930126743284</v>
       </c>
       <c r="AC2" t="n">
-        <v>452.9518384982623</v>
+        <v>506.2766970787666</v>
       </c>
       <c r="AD2" t="n">
-        <v>365974.1276847674</v>
+        <v>409059.3233815469</v>
       </c>
       <c r="AE2" t="n">
-        <v>500741.9471373113</v>
+        <v>559693.0126743284</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.276476824448341e-06</v>
+        <v>4.687911067378118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.472330729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>452951.8384982623</v>
+        <v>506276.6970787667</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.5352723029919</v>
+        <v>305.8918618800001</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.2630270894855</v>
+        <v>418.5347404207344</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.5438890655219</v>
+        <v>378.5903722121761</v>
       </c>
       <c r="AD3" t="n">
-        <v>273535.2723029919</v>
+        <v>305891.8618800002</v>
       </c>
       <c r="AE3" t="n">
-        <v>374263.0270894855</v>
+        <v>418534.7404207344</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.640909598612852e-06</v>
+        <v>5.438381450811572e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.4404296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>338543.8890655219</v>
+        <v>378590.3722121762</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>509.0819974895508</v>
+        <v>554.0419754586244</v>
       </c>
       <c r="AB2" t="n">
-        <v>696.5484480778489</v>
+        <v>758.0646734293753</v>
       </c>
       <c r="AC2" t="n">
-        <v>630.0708418051852</v>
+        <v>685.7160449477265</v>
       </c>
       <c r="AD2" t="n">
-        <v>509081.9974895508</v>
+        <v>554041.9754586244</v>
       </c>
       <c r="AE2" t="n">
-        <v>696548.4480778489</v>
+        <v>758064.6734293753</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.933964394361611e-06</v>
+        <v>3.831539530862921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.468424479166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>630070.8418051852</v>
+        <v>685716.0449477264</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.1082348183199</v>
+        <v>337.8069054586201</v>
       </c>
       <c r="AB3" t="n">
-        <v>416.0943031868711</v>
+        <v>462.2023110373536</v>
       </c>
       <c r="AC3" t="n">
-        <v>376.3828468827377</v>
+        <v>418.0903711769657</v>
       </c>
       <c r="AD3" t="n">
-        <v>304108.23481832</v>
+        <v>337806.9054586201</v>
       </c>
       <c r="AE3" t="n">
-        <v>416094.3031868711</v>
+        <v>462202.3110373536</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.559534458864531e-06</v>
+        <v>5.070909003463066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.398111979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>376382.8468827377</v>
+        <v>418090.3711769657</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>290.8073079250394</v>
+        <v>324.5059785653395</v>
       </c>
       <c r="AB4" t="n">
-        <v>397.8953882160041</v>
+        <v>444.0033960664865</v>
       </c>
       <c r="AC4" t="n">
-        <v>359.9208108143526</v>
+        <v>401.6283351085805</v>
       </c>
       <c r="AD4" t="n">
-        <v>290807.3079250394</v>
+        <v>324505.9785653395</v>
       </c>
       <c r="AE4" t="n">
-        <v>397895.3882160041</v>
+        <v>444003.3960664865</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.616486792226064e-06</v>
+        <v>5.183742061447895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.259765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>359920.8108143526</v>
+        <v>401628.3351085805</v>
       </c>
     </row>
   </sheetData>
